--- a/Iscasegot _escalated.xlsx
+++ b/Iscasegot _escalated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -52,7 +52,7 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Approve/Reject Case</x:t>
+    <x:t>Escalation Rule Validation Case</x:t>
   </x:si>
   <x:si>
     <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
@@ -64,100 +64,46 @@
     <x:t>Click on the Case tab</x:t>
   </x:si>
   <x:si>
-    <x:t>User should be navigated to the Case Page</x:t>
+    <x:t>User is navigated to the Case Home page</x:t>
   </x:si>
   <x:si>
     <x:t>Step 2</x:t>
   </x:si>
   <x:si>
-    <x:t>From the list of the  Cases displayed, select the appropriate Case.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Case details page.</x:t>
+    <x:t>Validate if the user is able to locate the Case number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Should be able to locate the Case number</x:t>
   </x:si>
   <x:si>
     <x:t>Step 3</x:t>
   </x:si>
   <x:si>
-    <x:t>Scroll down the Case page to locate the 'Approval History' section.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the pending Approve/Reject requests listed.</x:t>
+    <x:t>Validate if the Case has a arrow mark indicator in red</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is now able to confirm the Case has been escalated</x:t>
   </x:si>
   <x:si>
     <x:t>Step 4</x:t>
   </x:si>
   <x:si>
-    <x:t>To Approve/Reject the record's request, Click on 'Approve/Reject' link.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Approval Request, Account:(Approver Name) Page.</x:t>
+    <x:t>Click on the Case Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Case number details page</x:t>
   </x:si>
   <x:si>
     <x:t>Step 5</x:t>
   </x:si>
   <x:si>
-    <x:t>In the 'Approve/Reject Approval Request' section, input comments if required.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input appropriate comments.</x:t>
+    <x:t>Click on the Details tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User navigated to the Case details page</x:t>
   </x:si>
   <x:si>
     <x:t>Step 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the 'Approve' or the 'Reject' button to either Approve or Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to either 'Approve' or 'Reject' the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On performing either 'Approval' or 'Rejection' action, user is navigated to the Case request page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the request is either 'Approved' or 'Rejected'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Escalation Rule Validation Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Case Home page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the user is able to locate the Case number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Should be able to locate the Case number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the Case has a arrow mark indicator in red</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is now able to confirm the Case has been escalated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Case Number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Case number details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Details tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User navigated to the Case details page</x:t>
   </x:si>
   <x:si>
     <x:t>Scroll down to locate Case History section</x:t>
@@ -247,8 +193,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J15" totalsRowShown="0">
-  <x:autoFilter ref="A1:J15"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J7" totalsRowShown="0">
+  <x:autoFilter ref="A1:J7"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -553,7 +499,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J15"/>
+  <x:dimension ref="A1:J7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -565,8 +511,8 @@
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="87.410625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="76.550625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="49.410625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="54.410625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -719,158 +665,6 @@
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
-      <x:c r="F8" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s"/>
-      <x:c r="J8" s="0" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
-      <x:c r="F9" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s"/>
-      <x:c r="J9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s"/>
-      <x:c r="F10" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s"/>
-      <x:c r="J10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
-      <x:c r="F11" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s"/>
-      <x:c r="J11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
-      <x:c r="F12" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s"/>
-      <x:c r="J12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="s"/>
-      <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s"/>
-      <x:c r="F13" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s"/>
-      <x:c r="J13" s="0" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="s"/>
-      <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s"/>
-      <x:c r="F14" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s"/>
-      <x:c r="J14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s"/>
-      <x:c r="F15" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s"/>
-      <x:c r="J15" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
